--- a/biology/Botanique/Staminode/Staminode.xlsx
+++ b/biology/Botanique/Staminode/Staminode.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, un staminode est une étamine stérile ou avortée, souvent rudimentaire. Elle ne produit pas de pollen. Les staminodes, souvent discrets et semblables aux étamines, sont habituellement disposés en verticille dans la corolle de la fleur ; dans certains cas, ils sont assez longs pour en dépasser.
 Quelquefois, les staminodes sont modifiés pour produire du nectar, comme dans le genre Hamamelis (les Hamamélis).
